--- a/import/Things.xlsx
+++ b/import/Things.xlsx
@@ -8,10 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Things" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Thing" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Things!$A$3:$AZ$426</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Thing!$A$3:$AZ$426</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
